--- a/plate_layouts/220608_building_cascades_PL.xlsx
+++ b/plate_layouts/220608_building_cascades_PL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Documents/GitHub/WHISPR/plate_layouts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EA06DE2A-84D6-314D-813C-48ADCD5631DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80299ED4-0164-CE4D-8CFC-8984734DA15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2620" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="6300" yWindow="2620" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="220608_building_cascades_PL" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -953,11 +953,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,8 +1077,8 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
+      <c r="E4" t="s">
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -1106,34 +1106,16 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
+      <c r="F5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
       <c r="H6" t="s">
         <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -1216,8 +1198,26 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" t="s">
         <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
